--- a/data/Mail_Campaign_Two.xlsx
+++ b/data/Mail_Campaign_Two.xlsx
@@ -1,347 +1,743 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\workspace\Ameex_Marketing_Team\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView windowHeight="8385" windowWidth="20385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="1">
+  <si>
+    <t>Email ID</t>
+  </si>
   <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Email ID</t>
-  </si>
-  <si>
     <t>carroyiws@sti.net</t>
   </si>
   <si>
+    <t>carroyiws@sti.net is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>susan@sti.net</t>
   </si>
   <si>
+    <t>susan@sti.net is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>jeanne@2xinc.com</t>
   </si>
   <si>
+    <t>jeanne@2xinc.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>andrei.stefan1@gmail.com</t>
   </si>
   <si>
+    <t>andrei.stefan1@gmail.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>brad@bobcatnation.com</t>
   </si>
   <si>
+    <t>brad@bobcatnation.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kevin@bobcatnation.com</t>
   </si>
   <si>
+    <t>kevin@bobcatnation.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>tscola@423interactive.com</t>
   </si>
   <si>
+    <t>tscola@423interactive.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>agustin@42mate.com</t>
   </si>
   <si>
+    <t>agustin@42mate.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>ezequiel@42mate.com</t>
   </si>
   <si>
+    <t>ezequiel@42mate.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>esmith@4-h-canada.ca</t>
   </si>
   <si>
+    <t>esmith@4-h-canada.ca is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>sbenner@4-h-canada.ca</t>
   </si>
   <si>
+    <t>sbenner@4-h-canada.ca is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>michelle@4ingredients.com.au</t>
   </si>
   <si>
+    <t>michelle@4ingredients.com.au is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>melinda@4ingredients.com.au</t>
   </si>
   <si>
+    <t>melinda@4ingredients.com.au is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>emilyc@4te.ca</t>
   </si>
   <si>
+    <t>emilyc@4te.ca is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>michelinew@4te.ca</t>
   </si>
   <si>
+    <t>michelinew@4te.ca is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>swinchester@7genae.com</t>
   </si>
   <si>
+    <t>swinchester@7genae.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>mafetchet@voicesofsept11.org</t>
   </si>
   <si>
+    <t>mafetchet@voicesofsept11.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>ffetchet@voicesofsept11.org</t>
   </si>
   <si>
+    <t>ffetchet@voicesofsept11.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>daley.maggie@radioabl.ca</t>
   </si>
   <si>
+    <t>daley.maggie@radioabl.ca is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>wallace.troy@radioabl.ca</t>
   </si>
   <si>
+    <t>wallace.troy@radioabl.ca is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>wahorn@aace.com</t>
   </si>
   <si>
+    <t>wahorn@aace.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>sauld@aacpl.net</t>
   </si>
   <si>
+    <t>sauld@aacpl.net is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>darlene@aact.org</t>
   </si>
   <si>
+    <t>darlene@aact.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>ron@aact.org</t>
   </si>
   <si>
+    <t>ron@aact.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>Jmeyer@aagincoh.com</t>
   </si>
   <si>
+    <t>It was not possible to determine if Jmeyer@aagincoh.com
+is a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>msummitt@allaroundroustabout.com</t>
   </si>
   <si>
+    <t>msummitt@allaroundroustabout.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kjackson@abecarolina.com</t>
   </si>
   <si>
+    <t>kjackson@abecarolina.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>cjcook@abonmarche.com</t>
   </si>
   <si>
+    <t>cjcook@abonmarche.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>jlinn@abonmarche.com</t>
   </si>
   <si>
+    <t>jlinn@abonmarche.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>rodcardoza@abrahamicalliance.org</t>
   </si>
   <si>
+    <t>rodcardoza@abrahamicalliance.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>shalgren@abs.biz</t>
   </si>
   <si>
+    <t>It was not possible to determine if shalgren@abs.biz
+is a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>jdavis@absbuildingintegrators.com</t>
   </si>
   <si>
+    <t>jdavis@absbuildingintegrators.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>don@absolutepublicity.com</t>
   </si>
   <si>
+    <t>don@absolutepublicity.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kay@absolutepublicity.com</t>
   </si>
   <si>
+    <t>kay@absolutepublicity.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>cary@acaalex.com</t>
   </si>
   <si>
+    <t>cary@acaalex.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kmf@academic-search.com</t>
   </si>
   <si>
+    <t>kmf@academic-search.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kbelakovich@acacamps.org</t>
   </si>
   <si>
+    <t>kbelakovich@acacamps.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>trosenberg@acacamps.org</t>
   </si>
   <si>
+    <t>trosenberg@acacamps.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kevin@acbces.com</t>
   </si>
   <si>
+    <t>kevin@acbces.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>hollie@acceleratedcure.org</t>
   </si>
   <si>
+    <t>hollie@acceleratedcure.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>rmcburney@acceleratedcure.org</t>
   </si>
   <si>
+    <t>rmcburney@acceleratedcure.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>mindyp@comcast.net</t>
   </si>
   <si>
+    <t>mindyp@comcast.net is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>stephen@acclivius.com</t>
   </si>
   <si>
+    <t>stephen@acclivius.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>amartin@accumaxparts.com</t>
   </si>
   <si>
+    <t>amartin@accumaxparts.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>JLevine@accuray.com</t>
   </si>
   <si>
+    <t>JLevine@accuray.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>KLondy@accuray.com</t>
   </si>
   <si>
+    <t>KLondy@accuray.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>jpatton@acecrushers.com</t>
   </si>
   <si>
+    <t>jpatton@acecrushers.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>bbaatz@aceee.org</t>
   </si>
   <si>
+    <t>bbaatz@aceee.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>jamann@aceee.org</t>
   </si>
   <si>
+    <t>jamann@aceee.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>Nicola@ace-energy.net</t>
   </si>
   <si>
+    <t>Nicola@ace-energy.net is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>badedokun@acenonyx.com</t>
   </si>
   <si>
+    <t>badedokun@acenonyx.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>thurston@acglasscompany.com</t>
   </si>
   <si>
+    <t>thurston@acglasscompany.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>dbrown@achieve.org</t>
   </si>
   <si>
+    <t>dbrown@achieve.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>sboyd@achieve.org</t>
   </si>
   <si>
+    <t>sboyd@achieve.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>shaw@aclu-wa.org</t>
   </si>
   <si>
+    <t>shaw@aclu-wa.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>snarayan@aclu-wa.org</t>
   </si>
   <si>
+    <t>snarayan@aclu-wa.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>robert.newsom@acmartin.com</t>
   </si>
   <si>
+    <t>robert.newsom@acmartin.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>joey.gazzillo@acmedoor.com</t>
   </si>
   <si>
+    <t>joey.gazzillo@acmedoor.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>sammylanetuthill@gmail.com</t>
   </si>
   <si>
+    <t>sammylanetuthill@gmail.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>justin@acroname.com</t>
   </si>
   <si>
+    <t>justin@acroname.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>steve@acroname.com</t>
   </si>
   <si>
+    <t>steve@acroname.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kevin@acrosstheboardcreations.com</t>
   </si>
   <si>
+    <t>kevin@acrosstheboardcreations.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>mmistrett@cfyj.org</t>
   </si>
   <si>
+    <t>mmistrett@cfyj.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>david.hill@actcpas.com</t>
   </si>
   <si>
+    <t>david.hill@actcpas.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>sdecarlo@actiac.org</t>
   </si>
   <si>
+    <t>sdecarlo@actiac.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>larmstrong@actionembroidery1.com</t>
   </si>
   <si>
+    <t>larmstrong@actionembroidery1.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>ebriscoe@actioninmaturity.org</t>
   </si>
   <si>
+    <t>ebriscoe@actioninmaturity.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kallender@actioninmaturity.org</t>
   </si>
   <si>
+    <t>kallender@actioninmaturity.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>katie@actioninmontgomery.org</t>
   </si>
   <si>
+    <t>katie@actioninmontgomery.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>jethro@actionmill.com</t>
   </si>
   <si>
+    <t>jethro@actionmill.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>nick@commonpractice.com</t>
   </si>
   <si>
+    <t>nick@commonpractice.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>aball@hidglobal.com</t>
   </si>
   <si>
+    <t>aball@hidglobal.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>swiding@hidglobal.com</t>
   </si>
   <si>
+    <t>swiding@hidglobal.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>Duane.Watlington@activeimprints.com</t>
   </si>
   <si>
+    <t>Duane.Watlington@activeimprints.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>duane@activeimprints.com</t>
   </si>
   <si>
+    <t>duane@activeimprints.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kim@activepueblo.net</t>
   </si>
   <si>
+    <t>kim@activepueblo.net is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>lisa@acuite.com</t>
   </si>
   <si>
+    <t>lisa@acuite.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>sharon.sipprell@acumed.net</t>
   </si>
   <si>
+    <t>sharon.sipprell@acumed.net is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>djoubran@acumensolutions.com</t>
   </si>
   <si>
+    <t>djoubran@acumensolutions.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>mjohnson@acumensolutions.com</t>
   </si>
   <si>
+    <t>mjohnson@acumensolutions.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>wale@acumento.com</t>
   </si>
   <si>
+    <t>wale@acumento.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>david@acunlimitedinc.com</t>
   </si>
   <si>
+    <t>david@acunlimitedinc.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>Lisa@AcupunctureInDelray.com</t>
   </si>
   <si>
+    <t>Lisa@AcupunctureInDelray.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>hseidman@acus.gov</t>
   </si>
   <si>
+    <t>hseidman@acus.gov is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>djennings@acuw.org</t>
   </si>
   <si>
+    <t>djennings@acuw.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>niza@adamantsys.com</t>
   </si>
   <si>
+    <t>niza@adamantsys.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>steve_rasmussen@adamsec.com</t>
   </si>
   <si>
+    <t>steve_rasmussen@adamsec.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>kamin@adamsec.coop</t>
   </si>
   <si>
+    <t>kamin@adamsec.coop is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>stever@adamsec.coop</t>
   </si>
   <si>
+    <t>stever@adamsec.coop is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>gmetzger@adamson-associates.com</t>
   </si>
   <si>
+    <t>gmetzger@adamson-associates.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>adam@adamthegreat.com</t>
   </si>
   <si>
+    <t>adam@adamthegreat.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>youngad6@yahoo.com</t>
   </si>
   <si>
+    <t>youngad6@yahoo.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>fzamora@usaid.gov</t>
   </si>
   <si>
+    <t>fzamora@usaid.gov is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>swayne@usaid.gov</t>
   </si>
   <si>
+    <t>swayne@usaid.gov is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>carolyn@kcbs.us</t>
   </si>
   <si>
+    <t>carolyn@kcbs.us is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>sphelps@kcbs.us</t>
   </si>
   <si>
+    <t>sphelps@kcbs.us is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>etasch@adathjeshurun.com</t>
   </si>
   <si>
+    <t>etasch@adathjeshurun.com is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>aolson@adatyeshurun.org</t>
   </si>
   <si>
+    <t>aolson@adatyeshurun.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>executivedirector@adaunitedway.org</t>
   </si>
   <si>
+    <t>executivedirector@adaunitedway.org is
+a valid deliverable e-mail box address.</t>
+  </si>
+  <si>
     <t>ddevouge@addisonmckee.com</t>
+  </si>
+  <si>
+    <t>ddevouge@addisonmckee.com is
+a valid deliverable e-mail box address.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,11 +745,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,12 +909,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -377,44 +1110,325 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="23" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="15" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="6" name="Comma[0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle builtinId="7" name="Currency[0]" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -423,10 +1437,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -461,7 +1475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -494,26 +1508,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,23 +1543,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,21 +1604,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -655,7 +1635,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -705,635 +1685,835 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.5714285714286" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="98.4285714285714" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row customFormat="1" r="1" s="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="2"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+  <headerFooter/>
 </worksheet>
 </file>